--- a/src/excel/人员表.xlsx
+++ b/src/excel/人员表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="10050"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,9 +82,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,15 +105,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,28 +113,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,9 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,16 +142,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +182,36 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,36 +224,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -234,19 +234,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,90 +402,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,72 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +443,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +473,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -480,6 +493,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,15 +527,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -525,21 +540,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +560,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -759,6 +759,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>699135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="duitan33g"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="304800"/>
+          <a:ext cx="565785" cy="565785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>698500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="inaimg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="1146175"/>
+          <a:ext cx="571500" cy="574675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1051,7 +1132,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1076,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:5">
+    <row r="2" ht="67" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1172,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="66" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,5 +1221,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>